--- a/debug-examples/multitype.xlsx
+++ b/debug-examples/multitype.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Component</t>
   </si>
@@ -55,9 +55,6 @@
     <t xml:space="preserve">https://github.com/dosfstools/dosfstools/archive/refs/tags/v4.1.tar.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sqlite</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/sqlite/sqlite/archive/refs/tags/version-3.29.0.tar.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">Qt</t>
@@ -482,7 +476,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,233 +528,163 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1.76</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I15" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
